--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="266">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2453,25 +2453,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每晚定投耕作</t>
-    <rPh sb="0" eb="1">
-      <t>mei'wan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ding'tou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>geng'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
       <t>lian'xi</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>qin'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书健身定投耕作</t>
+    <rPh sb="0" eb="1">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'tou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪还可以但是不高</t>
+    <rPh sb="0" eb="1">
+      <t>qing'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'ke'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父母聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu'mu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liao'tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系父母</t>
+    <rPh sb="0" eb="1">
+      <t>lian'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900李一诺</t>
+    <rPh sb="4" eb="5">
+      <t>li'yi'nuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背诵输出耕作</t>
+    <rPh sb="0" eb="1">
+      <t>bei'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码输出耕作</t>
+    <rPh sb="0" eb="1">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'yun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买书之后就要找一本读透并且写读书笔记，像阳志平老师一样</t>
+    <rPh sb="0" eb="1">
+      <t>mai'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiu'yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhao'yi'ben</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>du'shu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bi'ji</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yang'zhi'ping</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>lao'shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理完金政委讲座，整理了Chrome收藏夹，跟修婷一起想怎么用VPN</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li'wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'zheng'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiang'zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shou'cang'jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xiu'ting</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zen'me</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2904,15 +3062,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2926,24 +3088,45 @@
         <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20180101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5779</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3362,9 +3545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,7 +3559,7 @@
     <col min="5" max="5" width="9.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -4517,11 +4700,23 @@
       <c r="B53" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="C53" s="3">
+        <v>3936</v>
+      </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>255</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/一五耕耘收成.xlsx
+++ b/一五耕耘收成.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="269">
   <si>
     <t>P锟记录</t>
     <rPh sb="1" eb="2">
@@ -2630,6 +2630,93 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买好了GCT数学书并且开始学习</t>
+    <rPh sb="0" eb="1">
+      <t>mai'le</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hao'le</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'xue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing'qie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己不是应该复习每本书，就该复习自己整理记录的所有那些概念啊！</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'ben'shu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiu'gai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fu'xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>na'xie</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>gai'nian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安回沪</t>
+    <rPh sb="0" eb="1">
+      <t>ping'an'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3064,7 +3151,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3072,8 +3159,8 @@
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3091,13 +3178,13 @@
         <v>263</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>232</v>
@@ -3116,14 +3203,14 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>264</v>
@@ -3132,6 +3219,24 @@
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20180102</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3529</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
